--- a/biology/Neurosciences/Acide_L-aminé_aromatique_décarboxylase/Acide_L-aminé_aromatique_décarboxylase.xlsx
+++ b/biology/Neurosciences/Acide_L-aminé_aromatique_décarboxylase/Acide_L-aminé_aromatique_décarboxylase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acide_L-amin%C3%A9_aromatique_d%C3%A9carboxylase</t>
+          <t>Acide_L-aminé_aromatique_décarboxylase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acide L-aminé aromatique décarboxylase est une lyase, également appelée DOPA décarboxylase, tryptophane décarboxylase, 5-hydroxytryptophane décarboxylase - ou encore AADC ou AAAD (de l'anglais Aromatic L-amino acid decarboxylase), qui catalyse plusieurs réactions de décarboxylation :
 L-DOPA  
